--- a/html_to_excel/combined_output.xlsx
+++ b/html_to_excel/combined_output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/html_to_excel/combined_output.xlsx
+++ b/html_to_excel/combined_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Priority</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>RiskRating</t>
         </is>
       </c>
@@ -458,86 +453,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CIS MEx 3.2.2 - Teams DLP Policies Not Enabled and Enforced</t>
+          <t>MultiFactor Authentication (MFA) is not enabled for all users in administrative roles</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enabling the default Teams DLP policy rule in Microsoft 365 helps protect an organization's sensitive information by preventing accidental sharing or leakage of that information in Teams conversations and channels.</t>
+          <t>Multifactor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multifactor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multifactor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Informational</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Low</t>
+          <t>Critical</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CIS MEx 3.3.1 - No SharePoint Online Data Classification Policies Set!</t>
+          <t>Multi-Factor Auth Status is 'Disabled' for some privileged Users</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>By categorizing and applying policy-based protection, SharePoint Online Data Classification Policies can help reduce the risk of data loss or exposure, and enable more effective incident response if a breach does occur.</t>
+          <t>Multi-factor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multi-factor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multi-factor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>Critical</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CIS MEx 3.2.1 - DLP Policy is not enabled!</t>
+          <t>Users Can Register Applications Is Set to 'Yes'</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Enabling DLP policies alerts users and administrators that specific types of data should not be exposed, helping to protect the data from accidental exposure.</t>
+          <t>It is recommended to only allow an administrator to register custom-developed applications. This ensures that the application undergoes a formal security review and approval process prior to exposing Microsoft Entra ID data. Certain users like developers or other high-request users may also be delegated permissions to prevent them from waiting on an administrative user. Your organization should review your policies and decide your needs.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Informational</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CIS MEx 2.1.4 - Safe Attachments Not Enabled</t>
+          <t>There are 1 global admins designated</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Enabling Safe Attachments policy helps protect against malware threats in email attachments by analyzing suspicious attachments in a secure, cloud-based environment before they are delivered to the user's inbox. This provides an additional layer of security and can prevent new or unseen types of malware from infiltrating the organization's network.</t>
+          <t>If there is only one global tenant administrator, he or she can perform malicious activity without the possibility of being discovered by another admin. If there are numerous global tenant administrators, the more likely it is that one of their accounts will be successfully breached by an external attacker.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -546,20 +521,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CIS MEx 2.1.7 - Anti-Phishing policy not has been created</t>
+          <t>Microsoft Authenticator is not configured to protect against MFA fatigue</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Protects users from phishing attacks (like impersonation and spoofing), and uses safety tips to warn users about potentially harmful messages.</t>
+          <t>As the use of strong authentication has become more widespread, attackers have started to exploit the tendency of users to experience 'MFA fatigue.' This occurs when users are repeatedly asked to provide additional forms of identification, leading them to eventually approve requests without fully verifying the source. To counteract this, number matching can be employed to ensure the security of the authentication process. With this method, users are prompted to confirm a number displayed on their original device and enter it into the device being used for MFA. Additionally, other information such as geolocation and application details are displayed to enhance the end user's awareness. Among these 3 options, number matching provides the strongest net security gain.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -568,20 +538,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CIS MEx 2.4.2 - Priority accounts do not have 'Strict protection' presets applied</t>
+          <t>Users can create security groups in Azure portals, API or PowerShell</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Enabling priority account protection for users in Microsoft 365 is necessary to enhance security for accounts with access to sensitive data and high privileges, such as CEOs, CISOs, CFOs, and IT admins. These priority accounts are often targeted by spear phishing or whaling attacks and require stronger protection to prevent account compromise. To address this, Microsoft 365 and Microsoft Defender for Office 365 offer several key features that provide extra security, including the identification of incidents and alerts involving priority accounts and the use of built-in custom protections designed specifically for them.</t>
+          <t>When creating security groups is enabled, all users in the directory are allowed to create new security groups and add members to those groups. Unless a business requires this day-to-day delegation, security group creation should be restricted to administrators only.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -590,20 +555,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CIS MEx 2.1.1 - Safe Links for Office Applications is not Enabled!</t>
+          <t>Multi-Factor Auth Status is 'Disabled' for some non-privileged Users</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Enabling Safe Links policy for Office applications allows URL's that exist inside of Office documents and email applications opened by Office, Office Online and Office mobile to be processed against Defender for Office time-of-click verification and rewritten if required. Safe Links for Office applications extends phishing protection to documents and emails that contain hyperlinks, even after they have been delivered to a user.</t>
+          <t>Multi-factor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multi-factor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multi-factor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -612,20 +572,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CIS MEx 2.1.5 - Safe Attachments for Office Applications is not Enabled!</t>
+          <t>Notify all admins when other admins reset their password?' is set to 'No'</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Safe Attachments for SharePoint, OneDrive, and Microsoft Teams protects organizations from inadvertently sharing malicious files. When a malicious file is detected, that file is blocked so that no one can open, copy, move, or share it until further actions are taken by the organization's security team.</t>
+          <t>Global Administrator accounts are sensitive. Any password reset activity notification, when sent to all Global Administrators, ensures that all Global administrators can passively confirm if such a reset is a common pattern within their group. For example, if all Global Administrators change their password every 30 days, any password reset activity before that may require administrator(s) to evaluate any unusual activity and confirm its origin.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -634,372 +589,287 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CIS MAz 2.4.3 - Unable to verify if Microsoft Defender for Cloud Apps is enabled and configured</t>
+          <t>Some User Accounts do not have MFA enabled</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Security teams can receive notifications of triggered alerts for atypical or suspicious activities, see how the organization's data in Microsoft 365 is accessed and used, suspend user accounts exhibiting suspicious activity, and require users to log back in to Microsoft 365 apps after an alert has been triggered</t>
+          <t>Both security defaults and conditional access with security defaults turned off are not compatible with per-user multi-factor authentication (MFA), which can lead to undesirable user authentication states. The CIS Microsoft 365 Benchmark explicitly employs Conditional Access for MFA as an enhancement over security defaults and as a replacement for the outdated per-user MFA. To ensure a consistent authentication state disable per-user MFA on all accounts.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Informational</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Informational</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CISMAz 5.1.1.1 - The Security Defaults are enabled on Azure Active Directory Tenant</t>
+          <t>There are less than 1 or more than 5 users with an global administrator assignment</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Security defaults in Azure Active Directory (Azure AD) make it easier to be secure and help protect your organization. Security defaults contain preconfigured security settings for common attacks.</t>
+          <t>The Global Administrator role has extensive privileges across all services in Microsoft Entra ID. The Global Administrator role should never be used in regular daily activities; administrators should have a regular user account for daily activities, and a separate account for administrative responsibilities. Limiting the number of Global Administrators helps mitigate the risk of unauthorized access, reduces the potential impact of human error, and aligns with the principle of least privilege to reduce the attack surface of an Azure tenant. Conversely, having at least two Global Administrators ensures that administrative functions can be performed without interruption in case of unavailability of a single admin.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CIS Az 1.5 - Number of methods required to reset a password is not set to 2 or more methods</t>
+          <t>User consent for applications is not set to: 'Do not allow user consent' or 'Allow for Verified Publishers'</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A Self-service Password Reset (SSPR) through Azure Multi-factor Authentication (MFA) ensures the user's identity is confirmed using two separate methods of identification. With multiple methods set, an attacker would have to compromise both methods before they could maliciously reset a user's password.</t>
+          <t>If Microsoft Entra ID is running as an identity provider for third-party applications, permissions and consent should be limited to administrators or pre-approved. Malicious applications may attempt to exfiltrate data or abuse privileged user accounts.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>High</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CIS Az 2.1.19 - Notify about alerts with the following severity is not Set to High</t>
+          <t>Third party integrated applications are allowed!</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Enabling security alert emails ensures that security alert emails are received from Microsoft. This ensures that the right people are aware of any potential security issues and are able to mitigate the risk.</t>
+          <t>Third party integrated applications connection to services should be disabled, unless there is a very clear value and robust security controls are in place. While there are legitimate uses, attackers can grant access from breached accounts to third party applications to exfiltrate data from your tenancy without having to maintain the breached account.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CIS Az 5.1.1 - 'Diagnostic Setting' does not exist for some Subscription Activity Logs</t>
+          <t>Ensure Sign-in frequency is enabled and browser sessions are not persistent for Administrative users</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A diagnostic setting controls how a diagnostic log is exported. By default, logs are retained only for 90 days. Diagnostic settings should be defined so that logs can be exported and stored for a longer duration in order to analyze security activities within an Azure subscription.</t>
+          <t>Forcing a time out for MFA will help ensure that sessions are not kept alive for an indefinite period of time, ensuring that browser sessions are not persistent will help in prevention of drive-by attacks in web browsers, this also prevents creation and saving of session cookies leaving nothing for an attacker to take.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CIS Az 2.2.1 - Ensure That Microsoft Defender for IoT Hub Is Set To 'On'</t>
+          <t>Verify if you have an Azure AD Identity Proteciton user risk policy enabled</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IoT devices are very rarely patched and can be potential attack vectors for enterprise networks. Updating their network configuration to use a central security hub allows for detection of these breaches</t>
+          <t>With the user risk policy turned on, Azure AD detects the probability that a user account has been compromised. Administrators can configure a user risk conditional access policy to automatically respond to a specific user risk level.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CIS MAz 5.2.4.1 - Self Service Password Reset is not set to be enabled for all users</t>
+          <t>MultiFactor Authentication (MFA) is not enabled for all users non-administrative roles</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Users will no longer need to engage the helpdesk for password resets, and the password reset mechanism will automatically block common, easily guessable passwords.</t>
+          <t>Multifactor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multifactor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multifactor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>High</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CISMAz 5.1.5.2 - User consent to apps accessing company data on their behalf is allowed!</t>
+          <t>Restrict non-admin users from creating tenants is set to No</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Attackers commonly use custom applications to trick users into granting them access to company data. Disabling future user consent operations setting mitigates this risk, and helps to reduce the threat-surface. If user consent is disabled previous consent grants will still be honored but all future consent operations must be performed by an administrator.</t>
+          <t>It is recommended to only allow an administrator to create new tenants. This prevent users from creating new Azure AD or Azure AD B2C tenants and ensures that only authorized users are able to do so.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CIS Az 1.6 - No Custom Bad Password List is set to 'Enforce' for your Organization</t>
+          <t>Access to the Azure AD administration portal is not restricted!</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Enabling this gives your organization further customization on what secure passwords are allowed. Setting a bad password list enables your organization to fine-tune its password policy further, depending on your needs. Removing easy-to-guess passwords increases the security of access to your Azure resources</t>
+          <t>The Azure AD administrative (AAD) portal contains sensitive data and permission settings, which are still enforced based on the user's role. However, an end user may inadvertently change properties or account settings that could result in increased administrative overhead. Additionally, a compromised end user account could be used by a malicious attacker as a means to gather additional information and escalate an attack.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CISM MAz 5.2.3.2 - No Custom Bad Password List is used within your organization</t>
+          <t>Non-Admin Users can create new tenants!</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Creating a new password can be difficult regardless of one's technical background. It is common to look around one's environment for suggestions when building a password, however, this may include picking words specific to the organization as inspiration for a password. An adversary may employ what is called a 'mangler' to create permutations of these specific words in an attempt to crack passwords or hashes making it easier to reach their goal.</t>
+          <t>Restricting tenant creation prevents unauthorized or uncontrolled deployment of resources and ensures that the organization retains control over its infrastructure. User generation of shadow IT could lead to multiple, disjointed environments that can make it difficult for IT to manage and secure the organization's data, especially if other users in the organization began using these tenants for business purposes under the misunderstanding that they were secured by the organization's security team.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CIS Az 2.1.18 - Additional email addresses is not Configured with any Security Contact Email</t>
+          <t>'Restrict access to Azure AD administration portal is set to 'No'</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud emails the Subscription Owner to notify them about security alerts. Adding your Security Contact's email address to the 'Additional email addresses' field ensures that your organization's Security Team is included in these alerts. This ensures that the proper people are aware of any potential compromise in order to mitigate the risk in a timely fashion.</t>
+          <t>The Microsoft Entra ID administrative portal has sensitive data and permission settings. All non-administrators should be prohibited from accessing any Entra ID data in the administration portal to avoid exposure</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CIS MAz 5.1.2.6 - LinkedIn Account Connections is enabled!</t>
+          <t>Guest invite restrictions is not set to 'Only users assigned to specific admin roles can invite guest users'</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Disabling LinkedIn integration prevents potential phishing attacks and risk scenarios where an external party could accidentally disclose sensitive information.</t>
+          <t>Restricting invitations to users with specific administrator roles ensures that only authorized accounts have access to cloud resources. This helps to maintain 'Need to Know' permissions and prevents inadvertent access to data. By default the setting Guest invite restrictions is set to Anyone in the organization can invite guest users including guests and non-admins. This would allow anyone within the organization to invite guests and non-admins to the tenant, posing a security risk.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CIS MAz 5.3.1 - Verify if Priviledged Identity Management (PIM) is used to manage roles</t>
+          <t>Ensure Microsoft Azure Management is limited to administrative roles</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Organizations want to minimize the number of people who have access to secure information or resources, because that reduces the chance of a malicious actor getting that access, or an authorized user inadvertently impacting a sensitive resource. However, users still need to carry out privileged operations in Azure AD and Office 365. Organizations can give users just-in-time (JIT) privileged access to roles. There is a need for oversight for what those users are doing with their administrator privileges. PIM helps to mitigate the risk of excessive, unnecessary, or misused access rights.</t>
+          <t>Blocking sign-in to Azure Management applications and portals enhances security of sensitive data by restricting access to privileged users. This mitigates potential exposure due to administrative errors or software vulnerabilities, as well as acting as a defense in depth measure against security breaches.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CIS Az 1.17 - Restrict user ability to access groups features in the Access Pane is Set to 'No'</t>
+          <t>'third-party storage services' are not restricted in 'Microsoft 365 on the web'</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Self-service group management enables users to create and manage security groups or Office 365 groups in Microsoft Entra ID. Unless a business requires this day-to-day delegation for some users, self-service group management should be disabled.</t>
+          <t>By using external storage services an organization may increases the risk of data breaches and unauthorized access to confidential information. Additionally, third-party services may not adhere to the same security standards as the organization, making it difficult to maintain data privacy and security.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CIS Az 1.1.4 - Allow users to remember multi-factor authentication on devices they trust is Enabled</t>
+          <t>User owned apps and services are not restricted</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Remembering Multi-Factor Authentication (MFA) for devices and browsers allows users to have the option to bypass MFA for a set number of days after performing a successful sign-in using MFA. This can enhance usability by minimizing the number of times a user may need to perform two-step verification on the same device. However, if an account or device is compromised, remembering MFA for trusted devices may affect security. Hence, it is recommended that users not be allowed to bypass MFA.</t>
+          <t>Attackers commonly use vulnerable and custom-built add-ins to access data in user applications. While allowing users to install add-ins by themselves does allow them to easily acquire useful add-ins that integrate with Microsoft applications, it can represent a risk if not used and monitored carefully. Disable future user's ability to install add-ins in Microsoft Word, Excel, or PowerPoint helps reduce your threat-surface and mitigate this risk.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CIS Az 1.10 - User consent for applications is not set to: 'Do not allow user consent'</t>
+          <t xml:space="preserve"> Ensure Administrative accounts are separate and cloud-only</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>If Microsoft Entra ID is running as an identity provider for third-party applications, permissions and consent should be limited to administrators or pre-approved. Malicious applications may attempt to exfiltrate data or abuse privileged user accounts</t>
+          <t>Ensuring administrative accounts are cloud-only, without applications assigned to them will reduce the attack surface of high privileged identities in your environment. In order to participate in Microsoft 365 security services such as Identity Protection, PIM and Conditional Access an administrative account will need a license attached to it. Ensure that the license used does not include any applications with potentially vulnerable services by using either Microsoft Entra ID P1 or Microsoft Entra ID P2 for the cloud-only account with administrator roles.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>High</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CIS MAz 5.2.2.5 - Phishing-resistant MFA strength must be required for Administrators</t>
+          <t>Verify if you have an Azure AD Identity Protection sign-in risk policy enabled</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sophisticated attacks targeting MFA are more prevalent as the use of it becomes more widespread. These 3 methods are considered phishing-resistant as they remove passwords from the login workflow. It also ensures that public/private key exchange can only happen between the devices and a registered provider which prevents login to fake or phishing websites..</t>
+          <t>Turning on the sign-in risk policy ensures that suspicious sign-ins are challenged for multi-factor authentication.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -1008,20 +878,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CIS Az 1.14 - Guest users access restrictions is not set to 'Guest user access is restricted to properties and memberships of their own directory objects'</t>
+          <t>Not all member users are 'MFA capable'</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Limiting guest access ensures that guest accounts do not have permission for certain directory tasks, such as enumerating users, groups or other directory resources, and cannot be assigned to administrative roles in your directory. Guest access has three levels of restriction. 1. Guest users have the same access as members (most inclusive)  2. Guest users have limited access to properties and memberships of directory objects 3. Guest user access is restricted to properties and memberships of their own directory objects The recommended option is the 3rd, most restrictive: 'Guest user access is restricted to their own directory object'</t>
+          <t>Multifactor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Users who are not MFA Capable have never registered a strong authentication method for multifactor authentication that is within policy and may not be using MFA. This could be a result of having never signed in, exclusion from a Conditional Access (CA) policy requiring MFA, or a CA policy does not exist. Reviewing this list of users will help identify possible lapses in policy or procedure</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -1030,20 +895,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CIS MAz 5.2.3.4 - Not all member users are 'MFA capable'</t>
+          <t>Less than 2 emergency access accounts have been defined</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Multifactor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Users who are not MFA Capable have never registered a strong authentication method for multifactor authentication that is within policy and may not be using MFA. This could be a result of having never signed in, exclusion from a Conditional Access (CA) policy requiring MFA, or a CA policy does not exist. Reviewing this list of users will help identify possible lapses in policy or procedure</t>
+          <t>In various situations, an organization may require the use of a break glass account to gain emergency access. In the event of losing access to administrative functions, an organization may experience a significant loss in its ability to provide support, lose insight into its security posture, and potentially suffer financial losses.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -1052,20 +912,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CIS MAz 5.2.2.2 - MultiFactor Authentication (MFA) is not enabled for all users non-administrative roles</t>
+          <t>Phishing-resistant MFA strength must be required for Administrators</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Multifactor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multifactor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multifactor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk.</t>
+          <t>Sophisticated attacks targeting MFA are more prevalent as the use of it becomes more widespread. These 3 methods are considered phishing-resistant as they remove passwords from the login workflow. It also ensures that public/private key exchange can only happen between the devices and a registered provider which prevents login to fake or phishing websites..</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -1074,20 +929,15 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CIS Az 1.13 - Users Can Register Applications Is Set to 'Yes'</t>
+          <t>Safe Links for Office Applications is not Enabled!</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>It is recommended to only allow an administrator to register custom-developed applications. This ensures that the application undergoes a formal security review and approval process prior to exposing Microsoft Entra ID data. Certain users like developers or other high-request users may also be delegated permissions to prevent them from waiting on an administrative user. Your organization should review your policies and decide your needs.</t>
+          <t>Enabling Safe Links policy for Office applications allows URL's that exist inside of Office documents and email applications opened by Office, Office Online and Office mobile to be processed against Defender for Office time-of-click verification and rewritten if required. Safe Links for Office applications extends phishing protection to documents and emails that contain hyperlinks, even after they have been delivered to a user.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -1096,20 +946,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CIS MAz 5.2.3.1 - Microsoft Authenticator is not configured to protect against MFA fatigue</t>
+          <t>Safe Attachments for Office Applications is not Enabled!</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>As the use of strong authentication has become more widespread, attackers have started to exploit the tendency of users to experience 'MFA fatigue.' This occurs when users are repeatedly asked to provide additional forms of identification, leading them to eventually approve requests without fully verifying the source. To counteract this, number matching can be employed to ensure the security of the authentication process. With this method, users are prompted to confirm a number displayed on their original device and enter it into the device being used for MFA. Additionally, other information such as geolocation and application details are displayed to enhance the end user's awareness. Among these 3 options, number matching provides the strongest net security gain.</t>
+          <t>Safe Attachments for SharePoint, OneDrive, and Microsoft Teams protects organizations from inadvertently sharing malicious files. When a malicious file is detected, that file is blocked so that no one can open, copy, move, or share it until further actions are taken by the organization's security team.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -1118,20 +963,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CIS Az 1.18 - Users can create security groups in Azure portals, API or PowerShell</t>
+          <t>Guest users access restrictions is not set to 'Guest user access is restricted to properties and memberships of their own directory objects'</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>When creating security groups is enabled, all users in the directory are allowed to create new security groups and add members to those groups. Unless a business requires this day-to-day delegation, security group creation should be restricted to administrators only.</t>
+          <t>Limiting guest access ensures that guest accounts do not have permission for certain directory tasks, such as enumerating users, groups or other directory resources, and cannot be assigned to administrative roles in your directory. Guest access has three levels of restriction. 1. Guest users have the same access as members (most inclusive)  2. Guest users have limited access to properties and memberships of directory objects 3. Guest user access is restricted to properties and memberships of their own directory objects The recommended option is the 3rd, most restrictive: 'Guest user access is restricted to their own directory object'</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -1140,20 +980,15 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CIS Az 1.1.3 - Multi-Factor Auth Status is 'Disabled' for some non-privileged Users</t>
+          <t>Safe Attachments Not Enabled</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Multi-factor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multi-factor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multi-factor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk</t>
+          <t>Enabling Safe Attachments policy helps protect against malware threats in email attachments by analyzing suspicious attachments in a secure, cloud-based environment before they are delivered to the user's inbox. This provides an additional layer of security and can prevent new or unseen types of malware from infiltrating the organization's network.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -1162,20 +997,15 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CIS Az 1.9 - Notify all admins when other admins reset their password?' is set to 'No'</t>
+          <t>Priority accounts do not have 'Strict protection' presets applied</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Global Administrator accounts are sensitive. Any password reset activity notification, when sent to all Global Administrators, ensures that all Global administrators can passively confirm if such a reset is a common pattern within their group. For example, if all Global Administrators change their password every 30 days, any password reset activity before that may require administrator(s) to evaluate any unusual activity and confirm its origin.</t>
+          <t>Enabling priority account protection for users in Microsoft 365 is necessary to enhance security for accounts with access to sensitive data and high privileges, such as CEOs, CISOs, CFOs, and IT admins. These priority accounts are often targeted by spear phishing or whaling attacks and require stronger protection to prevent account compromise. To address this, Microsoft 365 and Microsoft Defender for Office 365 offer several key features that provide extra security, including the identification of incidents and alerts involving priority accounts and the use of built-in custom protections designed specifically for them.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -1184,20 +1014,15 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CIS MAz 5.1.2.1 - Some User Accounts do not have MFA enabled</t>
+          <t>Anti-Phishing policy not has been created</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Both security defaults and conditional access with security defaults turned off are not compatible with per-user multi-factor authentication (MFA), which can lead to undesirable user authentication states. The CIS Microsoft 365 Benchmark explicitly employs Conditional Access for MFA as an enhancement over security defaults and as a replacement for the outdated per-user MFA. To ensure a consistent authentication state disable per-user MFA on all accounts.</t>
+          <t>Protects users from phishing attacks (like impersonation and spoofing), and uses safety tips to warn users about potentially harmful messages.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
         <is>
           <t>High</t>
         </is>
@@ -1206,372 +1031,287 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CIS Az 1.25 - There are less than 1 or more than 5 users with an global administrator assignment</t>
+          <t>No Custom Bad Password List is used within your organization</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>The Global Administrator role has extensive privileges across all services in Microsoft Entra ID. The Global Administrator role should never be used in regular daily activities; administrators should have a regular user account for daily activities, and a separate account for administrative responsibilities. Limiting the number of Global Administrators helps mitigate the risk of unauthorized access, reduces the potential impact of human error, and aligns with the principle of least privilege to reduce the attack surface of an Azure tenant. Conversely, having at least two Global Administrators ensures that administrative functions can be performed without interruption in case of unavailability of a single admin.</t>
+          <t>Creating a new password can be difficult regardless of one's technical background. It is common to look around one's environment for suggestions when building a password, however, this may include picking words specific to the organization as inspiration for a password. An adversary may employ what is called a 'mangler' to create permutations of these specific words in an attempt to crack passwords or hashes making it easier to reach their goal.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CIS Az 1.11 - User consent for applications is not set to: 'Do not allow user consent' or 'Allow for Verified Publishers'</t>
+          <t>No Custom Bad Password List is set to 'Enforce' for your Organization</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>If Microsoft Entra ID is running as an identity provider for third-party applications, permissions and consent should be limited to administrators or pre-approved. Malicious applications may attempt to exfiltrate data or abuse privileged user accounts.</t>
+          <t>Enabling this gives your organization further customization on what secure passwords are allowed. Setting a bad password list enables your organization to fine-tune its password policy further, depending on your needs. Removing easy-to-guess passwords increases the security of access to your Azure resources</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CIS MAz 5.1.2.2 - Third party integrated applications are allowed!</t>
+          <t>User consent to apps accessing company data on their behalf is allowed!</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Third party integrated applications connection to services should be disabled, unless there is a very clear value and robust security controls are in place. While there are legitimate uses, attackers can grant access from breached accounts to third party applications to exfiltrate data from your tenancy without having to maintain the breached account.</t>
+          <t>Attackers commonly use custom applications to trick users into granting them access to company data. Disabling future user consent operations setting mitigates this risk, and helps to reduce the threat-surface. If user consent is disabled previous consent grants will still be honored but all future consent operations must be performed by an administrator.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>Medium</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>High</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CIS MAz 5.2.2.4 - Ensure Sign-in frequency is enabled and browser sessions are not persistent for Administrative users</t>
+          <t>LinkedIn Account Connections is enabled!</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Forcing a time out for MFA will help ensure that sessions are not kept alive for an indefinite period of time, ensuring that browser sessions are not persistent will help in prevention of drive-by attacks in web browsers, this also prevents creation and saving of session cookies leaving nothing for an attacker to take.</t>
+          <t>Disabling LinkedIn integration prevents potential phishing attacks and risk scenarios where an external party could accidentally disclose sensitive information.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>Medium</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>High</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CIS MAz 5.2.2.7 - Verify if you have an Azure AD Identity Protection sign-in risk policy enabled</t>
+          <t>No SharePoint Online Data Classification Policies Set!</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Turning on the sign-in risk policy ensures that suspicious sign-ins are challenged for multi-factor authentication.</t>
+          <t>By categorizing and applying policy-based protection, SharePoint Online Data Classification Policies can help reduce the risk of data loss or exposure, and enable more effective incident response if a breach does occur.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CIS MAz 5.2.2.6 - Verify if you have an Azure AD Identity Proteciton user risk policy enabled</t>
+          <t>DLP Policy is not enabled!</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>With the user risk policy turned on, Azure AD detects the probability that a user account has been compromised. Administrators can configure a user risk conditional access policy to automatically respond to a specific user risk level.</t>
+          <t>Enabling DLP policies alerts users and administrators that specific types of data should not be exposed, helping to protect the data from accidental exposure.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CIS Az 1.3 - Restrict non-admin users from creating tenants is set to No</t>
+          <t>Verify if Priviledged Identity Management (PIM) is used to manage roles</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>It is recommended to only allow an administrator to create new tenants. This prevent users from creating new Azure AD or Azure AD B2C tenants and ensures that only authorized users are able to do so.</t>
+          <t>Organizations want to minimize the number of people who have access to secure information or resources, because that reduces the chance of a malicious actor getting that access, or an authorized user inadvertently impacting a sensitive resource. However, users still need to carry out privileged operations in Azure AD and Office 365. Organizations can give users just-in-time (JIT) privileged access to roles. There is a need for oversight for what those users are doing with their administrator privileges. PIM helps to mitigate the risk of excessive, unnecessary, or misused access rights.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>Medium</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>High</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CIS MAz 5.1.2.4 - Access to the Azure AD administration portal is not restricted!</t>
+          <t>Restrict user ability to access groups features in the Access Pane is Set to 'No'</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The Azure AD administrative (AAD) portal contains sensitive data and permission settings, which are still enforced based on the user's role. However, an end user may inadvertently change properties or account settings that could result in increased administrative overhead. Additionally, a compromised end user account could be used by a malicious attacker as a means to gather additional information and escalate an attack.</t>
+          <t>Self-service group management enables users to create and manage security groups or Office 365 groups in Microsoft Entra ID. Unless a business requires this day-to-day delegation for some users, self-service group management should be disabled.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CIS MAz 5.1.2.3 - Non-Admin Users can create new tenants!</t>
+          <t>'Idle Session Timeout' for unmanaged devices is not set to 3 hours or less!</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Restricting tenant creation prevents unauthorized or uncontrolled deployment of resources and ensures that the organization retains control over its infrastructure. User generation of shadow IT could lead to multiple, disjointed environments that can make it difficult for IT to manage and secure the organization's data, especially if other users in the organization began using these tenants for business purposes under the misunderstanding that they were secured by the organization's security team.</t>
+          <t>Ending idle sessions through an automatic process can help protect sensitive company data, and will add another layer of security for end users who work on unmanaged devices that can potentially be accessed by the public. Unauthorized individuals onsite or remotely can take advantage of systems left unattended over time. Automatic timing out of sessions makes this more difficult.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>Medium</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>High</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CIS Az 1.16 - 'Restrict access to Azure AD administration portal is set to 'No'</t>
+          <t>Allow users to remember multi-factor authentication on devices they trust is Enabled</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The Microsoft Entra ID administrative portal has sensitive data and permission settings. All non-administrators should be prohibited from accessing any Entra ID data in the administration portal to avoid exposure</t>
+          <t>Remembering Multi-Factor Authentication (MFA) for devices and browsers allows users to have the option to bypass MFA for a set number of days after performing a successful sign-in using MFA. This can enhance usability by minimizing the number of times a user may need to perform two-step verification on the same device. However, if an account or device is compromised, remembering MFA for trusted devices may affect security. Hence, it is recommended that users not be allowed to bypass MFA.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CIS Az 1.15 - Guest invite restrictions is not set to 'Only users assigned to specific admin roles can invite guest users'</t>
+          <t>User consent for applications is not set to: 'Do not allow user consent'</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Restricting invitations to users with specific administrator roles ensures that only authorized accounts have access to cloud resources. This helps to maintain 'Need to Know' permissions and prevents inadvertent access to data. By default the setting Guest invite restrictions is set to Anyone in the organization can invite guest users including guests and non-admins. This would allow anyone within the organization to invite guests and non-admins to the tenant, posing a security risk.</t>
+          <t>If Microsoft Entra ID is running as an identity provider for third-party applications, permissions and consent should be limited to administrators or pre-approved. Malicious applications may attempt to exfiltrate data or abuse privileged user accounts</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Informational</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CIS MAz 5.2.2.8 - Ensure Microsoft Azure Management is limited to administrative roles</t>
+          <t>Additional email addresses is not Configured with any Security Contact Email</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Blocking sign-in to Azure Management applications and portals enhances security of sensitive data by restricting access to privileged users. This mitigates potential exposure due to administrative errors or software vulnerabilities, as well as acting as a defense in depth measure against security breaches.</t>
+          <t>Microsoft Defender for Cloud emails the Subscription Owner to notify them about security alerts. Adding your Security Contact's email address to the 'Additional email addresses' field ensures that your organization's Security Team is included in these alerts. This ensures that the proper people are aware of any potential compromise in order to mitigate the risk in a timely fashion.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CIS Az 1.1.2 - Multi-Factor Auth Status is 'Disabled' for some privileged Users</t>
+          <t>Self Service Password Reset is not set to be enabled for all users</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Multi-factor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multi-factor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multi-factor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk.</t>
+          <t>Users will no longer need to engage the helpdesk for password resets, and the password reset mechanism will automatically block common, easily guessable passwords.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Critical</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CIS MAz 5.2.2.1 - MultiFactor Authentication (MFA) is not enabled for all users in administrative roles</t>
+          <t>Sways can be shared with people outside of your organization</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Multifactor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multifactor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multifactor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk.</t>
+          <t>Disable external sharing of Sway documents that can contain sensitive information to prevent accidental or arbitrary data leak.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Critical</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CIS MSp 7.2.8 - Ensure external sharing is restricted by security group!</t>
+          <t>Number of methods required to reset a password is not set to 2 or more methods</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Organizations wishing to create tighter security controls for external sharing can set this to enforce role-based access control by using security groups already defined in Microsoft Entra.</t>
+          <t>A Self-service Password Reset (SSPR) through Azure Multi-factor Authentication (MFA) ensures the user's identity is confirmed using two separate methods of identification. With multiple methods set, an attacker would have to compromise both methods before they could maliciously reset a user's password.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Informational</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Informational</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CIS MOff 1.2.1 - Public Microsoft 365 Groups Found!</t>
+          <t>The Security Defaults are enabled on Azure Active Directory Tenant</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ensure that only organizationally managed and approved public groups exist. When a group has a 'public' privacy, users may access data related to this group.</t>
+          <t>Security defaults in Azure Active Directory (Azure AD) make it easier to be secure and help protect your organization. Security defaults contain preconfigured security settings for common attacks.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Informational</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Informational</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CIS MOff 1.3.8 - Sways can be shared with people outside of your organization</t>
+          <t>Notify about alerts with the following severity is not Set to High</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Disable external sharing of Sway documents that can contain sensitive information to prevent accidental or arbitrary data leak.</t>
+          <t>Enabling security alert emails ensures that security alert emails are received from Microsoft. This ensures that the right people are aware of any potential security issues and are able to mitigate the risk.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
-        <is>
-          <t>Informational</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
@@ -1580,132 +1320,102 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CIS MOff 1.3.2 - 'Idle Session Timeout' for unmanaged devices is not set to 3 hours or less!</t>
+          <t>'Diagnostic Setting' does not exist for some Subscription Activity Logs</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ending idle sessions through an automatic process can help protect sensitive company data, and will add another layer of security for end users who work on unmanaged devices that can potentially be accessed by the public. Unauthorized individuals onsite or remotely can take advantage of systems left unattended over time. Automatic timing out of sessions makes this more difficult.</t>
+          <t>A diagnostic setting controls how a diagnostic log is exported. By default, logs are retained only for 90 days. Diagnostic settings should be defined so that logs can be exported and stored for a longer duration in order to analyze security activities within an Azure subscription.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CIS MOff 1.3.7 - 'third-party storage services' are not restricted in 'Microsoft 365 on the web'</t>
+          <t>Ensure That Microsoft Defender for IoT Hub Is Set To 'On'</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>By using external storage services an organization may increases the risk of data breaches and unauthorized access to confidential information. Additionally, third-party services may not adhere to the same security standards as the organization, making it difficult to maintain data privacy and security.</t>
+          <t>IoT devices are very rarely patched and can be potential attack vectors for enterprise networks. Updating their network configuration to use a central security hub allows for detection of these breaches</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CIS MOff 1.3.4 - User owned apps and services are not restricted</t>
+          <t>Teams DLP Policies Not Enabled and Enforced</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Attackers commonly use vulnerable and custom-built add-ins to access data in user applications. While allowing users to install add-ins by themselves does allow them to easily acquire useful add-ins that integrate with Microsoft applications, it can represent a risk if not used and monitored carefully. Disable future user's ability to install add-ins in Microsoft Word, Excel, or PowerPoint helps reduce your threat-surface and mitigate this risk.</t>
+          <t>Enabling the default Teams DLP policy rule in Microsoft 365 helps protect an organization's sensitive information by preventing accidental sharing or leakage of that information in Teams conversations and channels.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CIS MOff 1.1.1 -  Ensure Administrative accounts are separate and cloud-only</t>
+          <t>Public Microsoft 365 Groups Found!</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ensuring administrative accounts are cloud-only, without applications assigned to them will reduce the attack surface of high privileged identities in your environment. In order to participate in Microsoft 365 security services such as Identity Protection, PIM and Conditional Access an administrative account will need a license attached to it. Ensure that the license used does not include any applications with potentially vulnerable services by using either Microsoft Entra ID P1 or Microsoft Entra ID P2 for the cloud-only account with administrator roles.</t>
+          <t>Ensure that only organizationally managed and approved public groups exist. When a group has a 'public' privacy, users may access data related to this group.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>High</t>
+          <t>Informational</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CIS MOff 1.1.3 - There are 1 global admins designated</t>
+          <t>Unable to verify if Microsoft Defender for Cloud Apps is enabled and configured</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>If there is only one global tenant administrator, he or she can perform malicious activity without the possibility of being discovered by another admin. If there are numerous global tenant administrators, the more likely it is that one of their accounts will be successfully breached by an external attacker.</t>
+          <t>Security teams can receive notifications of triggered alerts for atypical or suspicious activities, see how the organization's data in Microsoft 365 is accessed and used, suspend user accounts exhibiting suspicious activity, and require users to log back in to Microsoft 365 apps after an alert has been triggered</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>High</t>
+          <t>Informational</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CIS MOff 1.1.2 - Less than 2 emergency access accounts have been defined</t>
+          <t>Ensure external sharing is restricted by security group!</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>In various situations, an organization may require the use of a break glass account to gain emergency access. In the event of losing access to administrative functions, an organization may experience a significant loss in its ability to provide support, lose insight into its security posture, and potentially suffer financial losses.</t>
+          <t>Organizations wishing to create tighter security controls for external sharing can set this to enforce role-based access control by using security groups already defined in Microsoft Entra.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>High</t>
+          <t>Informational</t>
         </is>
       </c>
     </row>

--- a/html_to_excel/combined_output.xlsx
+++ b/html_to_excel/combined_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MultiFactor Authentication (MFA) is not enabled for all users in administrative roles</t>
+          <t>Multi-Factor Auth Status is 'Disabled' for some privileged Users</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Multifactor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multifactor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multifactor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk.</t>
+          <t>Multi-factor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multi-factor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multi-factor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,29 +470,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Multi-Factor Auth Status is 'Disabled' for some privileged Users</t>
+          <t>Less than 2 emergency access accounts have been defined</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multi-factor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multi-factor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multi-factor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk.</t>
+          <t>In various situations, an organization may require the use of a break glass account to gain emergency access. In the event of losing access to administrative functions, an organization may experience a significant loss in its ability to provide support, lose insight into its security posture, and potentially suffer financial losses.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Users Can Register Applications Is Set to 'Yes'</t>
+          <t>Email from external senders cannot be identified</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>It is recommended to only allow an administrator to register custom-developed applications. This ensures that the application undergoes a formal security review and approval process prior to exposing Microsoft Entra ID data. Certain users like developers or other high-request users may also be delegated permissions to prevent them from waiting on an administrative user. Your organization should review your policies and decide your needs.</t>
+          <t>Tagging emails from external senders helps to inform end users about the origin of the email. This can allow them to proceed with more caution and make informed decisions when it comes to identifying spam or phishing emails.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,12 +504,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>There are 1 global admins designated</t>
+          <t>'Subscription Entering AAD Directory' and 'Subscription Leaving AAD Directory' Are Set to Everyone!</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>If there is only one global tenant administrator, he or she can perform malicious activity without the possibility of being discovered by another admin. If there are numerous global tenant administrators, the more likely it is that one of their accounts will be successfully breached by an external attacker.</t>
+          <t>Permissions to move subscriptions in and out of Microsoft Entra ID must only be given to appropriate administrative personnel. A subscription that is moved into an Microsoft Entra ID directory may be within a folder to which other users have elevated permissions. This prevents loss of data or unapproved changes of the objects within by potential bad actors.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -521,12 +521,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Microsoft Authenticator is not configured to protect against MFA fatigue</t>
+          <t>Non-Admin Users can create new tenants!</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>As the use of strong authentication has become more widespread, attackers have started to exploit the tendency of users to experience 'MFA fatigue.' This occurs when users are repeatedly asked to provide additional forms of identification, leading them to eventually approve requests without fully verifying the source. To counteract this, number matching can be employed to ensure the security of the authentication process. With this method, users are prompted to confirm a number displayed on their original device and enter it into the device being used for MFA. Additionally, other information such as geolocation and application details are displayed to enhance the end user's awareness. Among these 3 options, number matching provides the strongest net security gain.</t>
+          <t>Restricting tenant creation prevents unauthorized or uncontrolled deployment of resources and ensures that the organization retains control over its infrastructure. User generation of shadow IT could lead to multiple, disjointed environments that can make it difficult for IT to manage and secure the organization's data, especially if other users in the organization began using these tenants for business purposes under the misunderstanding that they were secured by the organization's security team.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -538,12 +538,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Users can create security groups in Azure portals, API or PowerShell</t>
+          <t>Restrict non-admin users from creating tenants is set to No</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>When creating security groups is enabled, all users in the directory are allowed to create new security groups and add members to those groups. Unless a business requires this day-to-day delegation, security group creation should be restricted to administrators only.</t>
+          <t>It is recommended to only allow an administrator to create new tenants. This prevent users from creating new Azure AD or Azure AD B2C tenants and ensures that only authorized users are able to do so.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,12 +555,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Multi-Factor Auth Status is 'Disabled' for some non-privileged Users</t>
+          <t>Third party integrated applications are allowed!</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Multi-factor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multi-factor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multi-factor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk</t>
+          <t>Third party integrated applications connection to services should be disabled, unless there is a very clear value and robust security controls are in place. While there are legitimate uses, attackers can grant access from breached accounts to third party applications to exfiltrate data from your tenancy without having to maintain the breached account.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,12 +572,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Notify all admins when other admins reset their password?' is set to 'No'</t>
+          <t>User consent for applications is not set to: 'Do not allow user consent' or 'Allow for Verified Publishers'</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Global Administrator accounts are sensitive. Any password reset activity notification, when sent to all Global Administrators, ensures that all Global administrators can passively confirm if such a reset is a common pattern within their group. For example, if all Global Administrators change their password every 30 days, any password reset activity before that may require administrator(s) to evaluate any unusual activity and confirm its origin.</t>
+          <t>If Microsoft Entra ID is running as an identity provider for third-party applications, permissions and consent should be limited to administrators or pre-approved. Malicious applications may attempt to exfiltrate data or abuse privileged user accounts.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -589,12 +589,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Some User Accounts do not have MFA enabled</t>
+          <t>Users Can Register Applications Is Set to 'Yes'</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Both security defaults and conditional access with security defaults turned off are not compatible with per-user multi-factor authentication (MFA), which can lead to undesirable user authentication states. The CIS Microsoft 365 Benchmark explicitly employs Conditional Access for MFA as an enhancement over security defaults and as a replacement for the outdated per-user MFA. To ensure a consistent authentication state disable per-user MFA on all accounts.</t>
+          <t>It is recommended to only allow an administrator to register custom-developed applications. This ensures that the application undergoes a formal security review and approval process prior to exposing Microsoft Entra ID data. Certain users like developers or other high-request users may also be delegated permissions to prevent them from waiting on an administrative user. Your organization should review your policies and decide your needs.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -606,12 +606,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>There are less than 1 or more than 5 users with an global administrator assignment</t>
+          <t>Notify all admins when other admins reset their password?' is set to 'No'</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Global Administrator role has extensive privileges across all services in Microsoft Entra ID. The Global Administrator role should never be used in regular daily activities; administrators should have a regular user account for daily activities, and a separate account for administrative responsibilities. Limiting the number of Global Administrators helps mitigate the risk of unauthorized access, reduces the potential impact of human error, and aligns with the principle of least privilege to reduce the attack surface of an Azure tenant. Conversely, having at least two Global Administrators ensures that administrative functions can be performed without interruption in case of unavailability of a single admin.</t>
+          <t>Global Administrator accounts are sensitive. Any password reset activity notification, when sent to all Global Administrators, ensures that all Global administrators can passively confirm if such a reset is a common pattern within their group. For example, if all Global Administrators change their password every 30 days, any password reset activity before that may require administrator(s) to evaluate any unusual activity and confirm its origin.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -623,12 +623,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>User consent for applications is not set to: 'Do not allow user consent' or 'Allow for Verified Publishers'</t>
+          <t>Some User Accounts do not have MFA enabled</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>If Microsoft Entra ID is running as an identity provider for third-party applications, permissions and consent should be limited to administrators or pre-approved. Malicious applications may attempt to exfiltrate data or abuse privileged user accounts.</t>
+          <t>Both security defaults and conditional access with security defaults turned off are not compatible with per-user multi-factor authentication (MFA), which can lead to undesirable user authentication states. The CIS Microsoft 365 Benchmark explicitly employs Conditional Access for MFA as an enhancement over security defaults and as a replacement for the outdated per-user MFA. To ensure a consistent authentication state disable per-user MFA on all accounts.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -640,12 +640,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Third party integrated applications are allowed!</t>
+          <t>Multi-Factor Auth Status is 'Disabled' for some non-privileged Users</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Third party integrated applications connection to services should be disabled, unless there is a very clear value and robust security controls are in place. While there are legitimate uses, attackers can grant access from breached accounts to third party applications to exfiltrate data from your tenancy without having to maintain the breached account.</t>
+          <t>Multi-factor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multi-factor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multi-factor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -657,12 +657,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ensure Sign-in frequency is enabled and browser sessions are not persistent for Administrative users</t>
+          <t>MultiFactor Authentication (MFA) is not enabled for all users non-administrative roles</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Forcing a time out for MFA will help ensure that sessions are not kept alive for an indefinite period of time, ensuring that browser sessions are not persistent will help in prevention of drive-by attacks in web browsers, this also prevents creation and saving of session cookies leaving nothing for an attacker to take.</t>
+          <t>Multifactor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multifactor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multifactor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -674,12 +674,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Verify if you have an Azure AD Identity Proteciton user risk policy enabled</t>
+          <t>Microsoft Authenticator is not configured to protect against MFA fatigue</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>With the user risk policy turned on, Azure AD detects the probability that a user account has been compromised. Administrators can configure a user risk conditional access policy to automatically respond to a specific user risk level.</t>
+          <t>As the use of strong authentication has become more widespread, attackers have started to exploit the tendency of users to experience 'MFA fatigue.' This occurs when users are repeatedly asked to provide additional forms of identification, leading them to eventually approve requests without fully verifying the source. To counteract this, number matching can be employed to ensure the security of the authentication process. With this method, users are prompted to confirm a number displayed on their original device and enter it into the device being used for MFA. Additionally, other information such as geolocation and application details are displayed to enhance the end user's awareness. Among these 3 options, number matching provides the strongest net security gain.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -691,12 +691,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MultiFactor Authentication (MFA) is not enabled for all users non-administrative roles</t>
+          <t>Phishing-resistant MFA strength must be required for Administrators</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Multifactor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Multifactor authentication provides additional assurance that the individual attempting to gain access is who they claim to be. With multifactor authentication, an attacker would need to compromise at least two different authentication mechanisms, increasing the difficulty of compromise and thus reducing the risk.</t>
+          <t>Sophisticated attacks targeting MFA are more prevalent as the use of it becomes more widespread. These 3 methods are considered phishing-resistant as they remove passwords from the login workflow. It also ensures that public/private key exchange can only happen between the devices and a registered provider which prevents login to fake or phishing websites..</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -708,12 +708,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Restrict non-admin users from creating tenants is set to No</t>
+          <t>No Conditional Access policies to block legacy authentication</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>It is recommended to only allow an administrator to create new tenants. This prevent users from creating new Azure AD or Azure AD B2C tenants and ensures that only authorized users are able to do so.</t>
+          <t>Legacy authentication protocols do not support multi-factor authentication. These protocols are often used by attackers because of this deficiency. Blocking legacy authentication makes it harder for attackers to gain access.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -725,12 +725,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Access to the Azure AD administration portal is not restricted!</t>
+          <t>Guest users access restrictions is not set to 'Guest user access is restricted to properties and memberships of their own directory objects'</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The Azure AD administrative (AAD) portal contains sensitive data and permission settings, which are still enforced based on the user's role. However, an end user may inadvertently change properties or account settings that could result in increased administrative overhead. Additionally, a compromised end user account could be used by a malicious attacker as a means to gather additional information and escalate an attack.</t>
+          <t>Limiting guest access ensures that guest accounts do not have permission for certain directory tasks, such as enumerating users, groups or other directory resources, and cannot be assigned to administrative roles in your directory. Guest access has three levels of restriction. 1. Guest users have the same access as members (most inclusive)  2. Guest users have limited access to properties and memberships of directory objects 3. Guest user access is restricted to properties and memberships of their own directory objects The recommended option is the 3rd, most restrictive: 'Guest user access is restricted to their own directory object'</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -742,12 +742,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Non-Admin Users can create new tenants!</t>
+          <t>Additional storage providers are not restricted in Outlook on the Web</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Restricting tenant creation prevents unauthorized or uncontrolled deployment of resources and ensures that the organization retains control over its infrastructure. User generation of shadow IT could lead to multiple, disjointed environments that can make it difficult for IT to manage and secure the organization's data, especially if other users in the organization began using these tenants for business purposes under the misunderstanding that they were secured by the organization's security team.</t>
+          <t>By default additional storage providers are allowed in Office on the Web (such as Box, Dropbox, Facebook, Google Drive, OneDrive Personal, etc.). This could lead to information leakage and additional risk of infection from organizational non-trusted storage providers. Restricting this will inherently reduce risk as it will narrow opportunities for infection and data leakage.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -759,12 +759,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>'Restrict access to Azure AD administration portal is set to 'No'</t>
+          <t>Guest invite restrictions is not set to 'Only users assigned to specific admin roles can invite guest users'</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Microsoft Entra ID administrative portal has sensitive data and permission settings. All non-administrators should be prohibited from accessing any Entra ID data in the administration portal to avoid exposure</t>
+          <t>Restricting invitations to users with specific administrator roles ensures that only authorized accounts have access to cloud resources. This helps to maintain 'Need to Know' permissions and prevents inadvertent access to data. By default the setting Guest invite restrictions is set to Anyone in the organization can invite guest users including guests and non-admins. This would allow anyone within the organization to invite guests and non-admins to the tenant, posing a security risk.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Guest invite restrictions is not set to 'Only users assigned to specific admin roles can invite guest users'</t>
+          <t>Ensure Sign-in frequency is enabled and browser sessions are not persistent for Administrative users</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Restricting invitations to users with specific administrator roles ensures that only authorized accounts have access to cloud resources. This helps to maintain 'Need to Know' permissions and prevents inadvertent access to data. By default the setting Guest invite restrictions is set to Anyone in the organization can invite guest users including guests and non-admins. This would allow anyone within the organization to invite guests and non-admins to the tenant, posing a security risk.</t>
+          <t>Forcing a time out for MFA will help ensure that sessions are not kept alive for an indefinite period of time, ensuring that browser sessions are not persistent will help in prevention of drive-by attacks in web browsers, this also prevents creation and saving of session cookies leaving nothing for an attacker to take.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -793,12 +793,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ensure Microsoft Azure Management is limited to administrative roles</t>
+          <t>External participants can give or request control</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Blocking sign-in to Azure Management applications and portals enhances security of sensitive data by restricting access to privileged users. This mitigates potential exposure due to administrative errors or software vulnerabilities, as well as acting as a defense in depth measure against security breaches.</t>
+          <t>Ensuring that only authorized individuals and not external participants are able to present and request control reduces the risk that a malicious user can inadvertently show content that is not appropriate.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -810,12 +810,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>'third-party storage services' are not restricted in 'Microsoft 365 on the web'</t>
+          <t>Users cannot report security concerns in Teams</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>By using external storage services an organization may increases the risk of data breaches and unauthorized access to confidential information. Additionally, third-party services may not adhere to the same security standards as the organization, making it difficult to maintain data privacy and security.</t>
+          <t>Users will be able to more quickly and systematically alert administrators of suspicious malicious messages within Teams. The content of these messages may be sensitive in nature and therefore should be kept within the organization and not shared with Microsoft without first consulting company policy.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -827,12 +827,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>User owned apps and services are not restricted</t>
+          <t>Anonymous users can join a meeting</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Attackers commonly use vulnerable and custom-built add-ins to access data in user applications. While allowing users to install add-ins by themselves does allow them to easily acquire useful add-ins that integrate with Microsoft applications, it can represent a risk if not used and monitored carefully. Disable future user's ability to install add-ins in Microsoft Word, Excel, or PowerPoint helps reduce your threat-surface and mitigate this risk.</t>
+          <t>For meetings that could contain sensitive information, it is best to allow the meeting organizer to vet anyone not directly sent an invite before admitting them to the meeting. This will also prevent the anonymous user from using the meeting link to have meetings at unscheduled times</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -844,12 +844,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensure Administrative accounts are separate and cloud-only</t>
+          <t>Not only organizers and co-organizers can present, but also other users</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ensuring administrative accounts are cloud-only, without applications assigned to them will reduce the attack surface of high privileged identities in your environment. In order to participate in Microsoft 365 security services such as Identity Protection, PIM and Conditional Access an administrative account will need a license attached to it. Ensure that the license used does not include any applications with potentially vulnerable services by using either Microsoft Entra ID P1 or Microsoft Entra ID P2 for the cloud-only account with administrator roles.</t>
+          <t>Ensuring that only authorized individuals are able to present reduces the risk that a malicious user can inadvertently show content that is not appropriate.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -861,12 +861,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Verify if you have an Azure AD Identity Protection sign-in risk policy enabled</t>
+          <t>Ensure Microsoft Azure Management is limited to administrative roles</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Turning on the sign-in risk policy ensures that suspicious sign-ins are challenged for multi-factor authentication.</t>
+          <t>Blocking sign-in to Azure Management applications and portals enhances security of sensitive data by restricting access to privileged users. This mitigates potential exposure due to administrative errors or software vulnerabilities, as well as acting as a defense in depth measure against security breaches.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -878,12 +878,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Not all member users are 'MFA capable'</t>
+          <t>Users can send emails to a channel emailaddress</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Multifactor authentication requires an individual to present a minimum of two separate forms of authentication before access is granted. Users who are not MFA Capable have never registered a strong authentication method for multifactor authentication that is within policy and may not be using MFA. This could be a result of having never signed in, exclusion from a Conditional Access (CA) policy requiring MFA, or a CA policy does not exist. Reviewing this list of users will help identify possible lapses in policy or procedure</t>
+          <t>Channel email addresses are not under the tenant's domain and organizations do not have control over the security settings for this email address. An attacker could email channels directly if they discover the channel email address.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -895,12 +895,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Less than 2 emergency access accounts have been defined</t>
+          <t>The meeting chat allows anonymous users</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>In various situations, an organization may require the use of a break glass account to gain emergency access. In the event of losing access to administrative functions, an organization may experience a significant loss in its ability to provide support, lose insight into its security posture, and potentially suffer financial losses.</t>
+          <t>Ensuring that only authorized individuals can read and write chat messages during a meeting reduces the risk that a malicious user can inadvertently show content that is not appropriate or view sensitive information.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -912,12 +912,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Phishing-resistant MFA strength must be required for Administrators</t>
+          <t>Users dialing in can bypass the lobby</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sophisticated attacks targeting MFA are more prevalent as the use of it becomes more widespread. These 3 methods are considered phishing-resistant as they remove passwords from the login workflow. It also ensures that public/private key exchange can only happen between the devices and a registered provider which prevents login to fake or phishing websites..</t>
+          <t>For meetings that could contain sensitive information, it is best to allow the meeting organizer to vet anyone not directly from the organization.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -929,12 +929,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Safe Links for Office Applications is not Enabled!</t>
+          <t>Everyone can bypass the lobby</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Enabling Safe Links policy for Office applications allows URL's that exist inside of Office documents and email applications opened by Office, Office Online and Office mobile to be processed against Defender for Office time-of-click verification and rewritten if required. Safe Links for Office applications extends phishing protection to documents and emails that contain hyperlinks, even after they have been delivered to a user.</t>
+          <t>For meetings that could contain sensitive information, it is best to allow the meeting organizer to vet anyone not directly sent an invite before admitting them to the meeting. This will also prevent the anonymous user from using the meeting link to have meetings at unscheduled times.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -946,12 +946,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Safe Attachments for Office Applications is not Enabled!</t>
+          <t>'third-party storage services' are not restricted in 'Microsoft 365 on the web'</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Safe Attachments for SharePoint, OneDrive, and Microsoft Teams protects organizations from inadvertently sharing malicious files. When a malicious file is detected, that file is blocked so that no one can open, copy, move, or share it until further actions are taken by the organization's security team.</t>
+          <t>By using external storage services an organization may increases the risk of data breaches and unauthorized access to confidential information. Additionally, third-party services may not adhere to the same security standards as the organization, making it difficult to maintain data privacy and security.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -963,12 +963,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Guest users access restrictions is not set to 'Guest user access is restricted to properties and memberships of their own directory objects'</t>
+          <t>SharePoint and OneDrive integration with Azure AD B2B is not enabled!</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Limiting guest access ensures that guest accounts do not have permission for certain directory tasks, such as enumerating users, groups or other directory resources, and cannot be assigned to administrative roles in your directory. Guest access has three levels of restriction. 1. Guest users have the same access as members (most inclusive)  2. Guest users have limited access to properties and memberships of directory objects 3. Guest user access is restricted to properties and memberships of their own directory objects The recommended option is the 3rd, most restrictive: 'Guest user access is restricted to their own directory object'</t>
+          <t>External users assigned guest accounts will be subject to Azure AD access policies, such as multi-factor authentication. This provides a way to manage guest identities and control access to SharePoint and OneDrive resources. Without this integration, files can be shared without account registration, making it more challenging to audit and manage who has access to the organization's data.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -980,12 +980,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Safe Attachments Not Enabled</t>
+          <t>Reauthentication with verification code is not restricted!</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Enabling Safe Attachments policy helps protect against malware threats in email attachments by analyzing suspicious attachments in a secure, cloud-based environment before they are delivered to the user's inbox. This provides an additional layer of security and can prevent new or unseen types of malware from infiltrating the organization's network.</t>
+          <t>By increasing the frequency of times guests need to reauthenticate this ensures guest user access to data is not prolonged beyond an acceptable amount of time.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -997,12 +997,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Priority accounts do not have 'Strict protection' presets applied</t>
+          <t>Modern Authentication for Microsoft Sharepoint is disabled!</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Enabling priority account protection for users in Microsoft 365 is necessary to enhance security for accounts with access to sensitive data and high privileges, such as CEOs, CISOs, CFOs, and IT admins. These priority accounts are often targeted by spear phishing or whaling attacks and require stronger protection to prevent account compromise. To address this, Microsoft 365 and Microsoft Defender for Office 365 offer several key features that provide extra security, including the identification of incidents and alerts involving priority accounts and the use of built-in custom protections designed specifically for them.</t>
+          <t>Strong authentication controls, such as the use of multifactor authentication, may be circumvented if basic authentication is used by SharePoint applications. Requiring modern authentication for SharePoint applications ensures strong authentication mechanisms are used when establishing sessions between these applications, SharePoint, and connecting users.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1014,12 +1014,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Anti-Phishing policy not has been created</t>
+          <t>Guest access to a site or OneDrive does not expire automatically</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Protects users from phishing attacks (like impersonation and spoofing), and uses safety tips to warn users about potentially harmful messages.</t>
+          <t>This setting ensures that guests who no longer need access to the site or link no longer have access after a set period of time. Allowing guest access for an indefinite amount of time could lead to loss of data confidentiality and oversight.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1031,46 +1031,46 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>No Custom Bad Password List is used within your organization</t>
+          <t>User owned apps and services are not restricted</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Creating a new password can be difficult regardless of one's technical background. It is common to look around one's environment for suggestions when building a password, however, this may include picking words specific to the organization as inspiration for a password. An adversary may employ what is called a 'mangler' to create permutations of these specific words in an attempt to crack passwords or hashes making it easier to reach their goal.</t>
+          <t>Attackers commonly use vulnerable and custom-built add-ins to access data in user applications. While allowing users to install add-ins by themselves does allow them to easily acquire useful add-ins that integrate with Microsoft applications, it can represent a risk if not used and monitored carefully. Disable future user's ability to install add-ins in Microsoft Word, Excel, or PowerPoint helps reduce your threat-surface and mitigate this risk.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>No Custom Bad Password List is set to 'Enforce' for your Organization</t>
+          <t xml:space="preserve"> Ensure Administrative accounts are separate and cloud-only</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Enabling this gives your organization further customization on what secure passwords are allowed. Setting a bad password list enables your organization to fine-tune its password policy further, depending on your needs. Removing easy-to-guess passwords increases the security of access to your Azure resources</t>
+          <t>Ensuring administrative accounts are cloud-only, without applications assigned to them will reduce the attack surface of high privileged identities in your environment. In order to participate in Microsoft 365 security services such as Identity Protection, PIM and Conditional Access an administrative account will need a license attached to it. Ensure that the license used does not include any applications with potentially vulnerable services by using either Microsoft Entra ID P1 or Microsoft Entra ID P2 for the cloud-only account with administrator roles.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>User consent to apps accessing company data on their behalf is allowed!</t>
+          <t>Idle Session Timeout for unmanaged devices is not set to 3 hours or less!</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Attackers commonly use custom applications to trick users into granting them access to company data. Disabling future user consent operations setting mitigates this risk, and helps to reduce the threat-surface. If user consent is disabled previous consent grants will still be honored but all future consent operations must be performed by an administrator.</t>
+          <t>Ending idle sessions through an automatic process can help protect sensitive company data, and will add another layer of security for end users who work on unmanaged devices that can potentially be accessed by the public. Unauthorized individuals onsite or remotely can take advantage of systems left unattended over time. Automatic timing out of sessions makes this more difficult.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1082,12 +1082,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LinkedIn Account Connections is enabled!</t>
+          <t>User consent to apps accessing company data on their behalf is allowed!</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Disabling LinkedIn integration prevents potential phishing attacks and risk scenarios where an external party could accidentally disclose sensitive information.</t>
+          <t>Attackers commonly use custom applications to trick users into granting them access to company data. Disabling future user consent operations setting mitigates this risk, and helps to reduce the threat-surface. If user consent is disabled previous consent grants will still be honored but all future consent operations must be performed by an administrator.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1099,12 +1099,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>No SharePoint Online Data Classification Policies Set!</t>
+          <t>User consent for applications is not set to: 'Do not allow user consent'</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>By categorizing and applying policy-based protection, SharePoint Online Data Classification Policies can help reduce the risk of data loss or exposure, and enable more effective incident response if a breach does occur.</t>
+          <t>If Microsoft Entra ID is running as an identity provider for third-party applications, permissions and consent should be limited to administrators or pre-approved. Malicious applications may attempt to exfiltrate data or abuse privileged user accounts</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1116,12 +1116,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DLP Policy is not enabled!</t>
+          <t>Allow users to remember multi-factor authentication on devices they trust is Enabled</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Enabling DLP policies alerts users and administrators that specific types of data should not be exposed, helping to protect the data from accidental exposure.</t>
+          <t>Remembering Multi-Factor Authentication (MFA) for devices and browsers allows users to have the option to bypass MFA for a set number of days after performing a successful sign-in using MFA. This can enhance usability by minimizing the number of times a user may need to perform two-step verification on the same device. However, if an account or device is compromised, remembering MFA for trusted devices may affect security. Hence, it is recommended that users not be allowed to bypass MFA.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1133,12 +1133,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Verify if Priviledged Identity Management (PIM) is used to manage roles</t>
+          <t>'Notify users on password resets?' is set to 'No'</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Organizations want to minimize the number of people who have access to secure information or resources, because that reduces the chance of a malicious actor getting that access, or an authorized user inadvertently impacting a sensitive resource. However, users still need to carry out privileged operations in Azure AD and Office 365. Organizations can give users just-in-time (JIT) privileged access to roles. There is a need for oversight for what those users are doing with their administrator privileges. PIM helps to mitigate the risk of excessive, unnecessary, or misused access rights.</t>
+          <t>User notification on password reset is a proactive way of confirming password reset activity. It helps the user to recognize unauthorized password reset activities.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1150,12 +1150,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Restrict user ability to access groups features in the Access Pane is Set to 'No'</t>
+          <t>No Custom Bad Password List is set to 'Enforce' for your Organization</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Self-service group management enables users to create and manage security groups or Office 365 groups in Microsoft Entra ID. Unless a business requires this day-to-day delegation for some users, self-service group management should be disabled.</t>
+          <t>Enabling this gives your organization further customization on what secure passwords are allowed. Setting a bad password list enables your organization to fine-tune its password policy further, depending on your needs. Removing easy-to-guess passwords increases the security of access to your Azure resources</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1167,12 +1167,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>'Idle Session Timeout' for unmanaged devices is not set to 3 hours or less!</t>
+          <t>No Custom Bad Password List is used within your organization</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ending idle sessions through an automatic process can help protect sensitive company data, and will add another layer of security for end users who work on unmanaged devices that can potentially be accessed by the public. Unauthorized individuals onsite or remotely can take advantage of systems left unattended over time. Automatic timing out of sessions makes this more difficult.</t>
+          <t>Creating a new password can be difficult regardless of one's technical background. It is common to look around one's environment for suggestions when building a password, however, this may include picking words specific to the organization as inspiration for a password. An adversary may employ what is called a 'mangler' to create permutations of these specific words in an attempt to crack passwords or hashes making it easier to reach their goal.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1184,12 +1184,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Allow users to remember multi-factor authentication on devices they trust is Enabled</t>
+          <t>Additional email addresses is not Configured with any Security Contact Email</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Remembering Multi-Factor Authentication (MFA) for devices and browsers allows users to have the option to bypass MFA for a set number of days after performing a successful sign-in using MFA. This can enhance usability by minimizing the number of times a user may need to perform two-step verification on the same device. However, if an account or device is compromised, remembering MFA for trusted devices may affect security. Hence, it is recommended that users not be allowed to bypass MFA.</t>
+          <t>Microsoft Defender for Cloud emails the Subscription Owner to notify them about security alerts. Adding your Security Contact's email address to the 'Additional email addresses' field ensures that your organization's Security Team is included in these alerts. This ensures that the proper people are aware of any potential compromise in order to mitigate the risk in a timely fashion.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1201,12 +1201,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>User consent for applications is not set to: 'Do not allow user consent'</t>
+          <t>Guest Users Must be Reviewed on a Regular Basis</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>If Microsoft Entra ID is running as an identity provider for third-party applications, permissions and consent should be limited to administrators or pre-approved. Malicious applications may attempt to exfiltrate data or abuse privileged user accounts</t>
+          <t>Guest users in the Azure AD are generally required for collaboration purposes in Office 365, and may also be required for Azure functions in enterprises with multiple Azure tenants. Guest users should be reviewed on a regular basis, at least annually. Guest users should not be granted administrative roles where possible. Guest users are typically added outside your employee on-boarding/off-boarding process and could potentially be overlooked indefinitely, leading to a potential vulnerability. Guest users should be reviewed on a monthly basis to ensure that inactive and unneeded accounts are removed.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1218,12 +1218,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Additional email addresses is not Configured with any Security Contact Email</t>
+          <t>External access is not restricted in the Teams admin center!</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud emails the Subscription Owner to notify them about security alerts. Adding your Security Contact's email address to the 'Additional email addresses' field ensures that your organization's Security Team is included in these alerts. This ensures that the proper people are aware of any potential compromise in order to mitigate the risk in a timely fashion.</t>
+          <t>Allowing users to communicate with Skype or Teams users outside of an organization presents a potential security threat as external users can interact with organization users over Skype for Business or Teams. While legitimate, productivity-improving scenarios exist, they are outweighed by the risk of data loss, phishing, and social engineering attacks against organization users via Teams. Therefore, it is recommended to restrict external communications in order to minimize the risk of security incidents.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1235,12 +1235,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Self Service Password Reset is not set to be enabled for all users</t>
+          <t>Mailbox auditing is not Enabled for all users</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Users will no longer need to engage the helpdesk for password resets, and the password reset mechanism will automatically block common, easily guessable passwords.</t>
+          <t>Enforcing the default ensures auditing was not turned off intentionally or accidentally. Auditing mailbox actions will allow forensics and IR teams to trace various malicious activities that can generate TTPs caused by inbox access and tampering</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1252,114 +1252,114 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sways can be shared with people outside of your organization</t>
+          <t>Ensure that DKIM is enabled for all Exchange Online Domains</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Disable external sharing of Sway documents that can contain sensitive information to prevent accidental or arbitrary data leak.</t>
+          <t>By enabling DKIM with Office 365, messages that are sent from Exchange Online will be cryptographically signed. This will allow the receiving email system to validate that the messages were generated by a server that the organization authorized and not being spoofed.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Number of methods required to reset a password is not set to 2 or more methods</t>
+          <t>No SharePoint Online Data Classification Policies Set!</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A Self-service Password Reset (SSPR) through Azure Multi-factor Authentication (MFA) ensures the user's identity is confirmed using two separate methods of identification. With multiple methods set, an attacker would have to compromise both methods before they could maliciously reset a user's password.</t>
+          <t>By categorizing and applying policy-based protection, SharePoint Online Data Classification Policies can help reduce the risk of data loss or exposure, and enable more effective incident response if a breach does occur.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>The Security Defaults are enabled on Azure Active Directory Tenant</t>
+          <t>External sharing of calendars is available!</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Security defaults in Azure Active Directory (Azure AD) make it easier to be secure and help protect your organization. Security defaults contain preconfigured security settings for common attacks.</t>
+          <t>Attackers often spend time learning about organizations before launching an attack. Publicly available calendars can help attackers understand organizational relationships and determine when specific users may be more vulnerable to an attack, such as when they are traveling.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Notify about alerts with the following severity is not Set to High</t>
+          <t>Forms of mail forwarding are not blocked and/or not disabled</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Enabling security alert emails ensures that security alert emails are received from Microsoft. This ensures that the right people are aware of any potential security issues and are able to mitigate the risk.</t>
+          <t>Attackers often create these rules to exfiltrate data from your tenancy, this could be accomplished via access to an end-user account or otherwise. An insider could also use one of these methods as an secondary channel to exfiltrate sensitive data.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>'Diagnostic Setting' does not exist for some Subscription Activity Logs</t>
+          <t>DLP Policy is not enabled!</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A diagnostic setting controls how a diagnostic log is exported. By default, logs are retained only for 90 days. Diagnostic settings should be defined so that logs can be exported and stored for a longer duration in order to analyze security activities within an Azure subscription.</t>
+          <t>Enabling DLP policies alerts users and administrators that specific types of data should not be exposed, helping to protect the data from accidental exposure.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ensure That Microsoft Defender for IoT Hub Is Set To 'On'</t>
+          <t>Mailbox auditing for E3 users is not enabled!</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>IoT devices are very rarely patched and can be potential attack vectors for enterprise networks. Updating their network configuration to use a central security hub allows for detection of these breaches</t>
+          <t>Whether it is for regulatory compliance or for tracking unauthorized configuration changes in Microsoft 365, enabling mailbox auditing, and ensuring the proper mailbox actions are accounted for allows for Microsoft 365 teams to run security operations, forensics or general investigations on mailbox activities</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Teams DLP Policies Not Enabled and Enforced</t>
+          <t>Public Microsoft 365 Groups Found</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Enabling the default Teams DLP policy rule in Microsoft 365 helps protect an organization's sensitive information by preventing accidental sharing or leakage of that information in Teams conversations and channels.</t>
+          <t>Ensure that only organizationally managed and approved public groups exist. When a group has a 'Public' privacy, users may access data related to this group. Administrators are notified when a user uses the Azure Portal. Requesting access to the group forces users to send a message to the group owner, but they still have immediately access to the group. The SharePoint URL is usually guessable, and can be found from the Group application of the Access Panel. If group privacy is not controlled, any user may access sensitive information, according to the group they try to access.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1371,49 +1371,661 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Public Microsoft 365 Groups Found!</t>
+          <t>Notify about alerts with the following severity is not Set to High</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ensure that only organizationally managed and approved public groups exist. When a group has a 'public' privacy, users may access data related to this group.</t>
+          <t>Enabling security alert emails ensures that security alert emails are received from Microsoft. This ensures that the right people are aware of any potential security issues and are able to mitigate the risk.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Informational</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Unable to verify if Microsoft Defender for Cloud Apps is enabled and configured</t>
+          <t>Number of methods required to reset a password is not set to 2 or more methods</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Security teams can receive notifications of triggered alerts for atypical or suspicious activities, see how the organization's data in Microsoft 365 is accessed and used, suspend user accounts exhibiting suspicious activity, and require users to log back in to Microsoft 365 apps after an alert has been triggered</t>
+          <t>A Self-service Password Reset (SSPR) through Azure Multi-factor Authentication (MFA) ensures the user's identity is confirmed using two separate methods of identification. With multiple methods set, an attacker would have to compromise both methods before they could maliciously reset a user's password.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Informational</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>Security Defaults is disabled in Microsoft Entra ID</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Security defaults in Azure Active Directory (Azure AD) make it easier to be secure and help protect your organization. Security defaults contain preconfigured security settings for common attacks.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>The Security Defaults are not enabled on Azure Active Directory Tenant</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Security defaults in Azure Active Directory (Azure AD) make it easier to be secure and help protect your organization. Security defaults contain preconfigured security settings for common attacks.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>No dynamic group for guest users is created!</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Dynamic Groups allow for an automated method to assign group membership. Guest user accounts will be automatically added to this group and through this existing conditional access rules, access controls and other security measures will ensure that new guest accounts are restricted in the same manner as existing guest accounts.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Activity Log Alert does not exist for Create or Update Network Security Groups</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Monitoring for Create or Update Network Security Group events gives insight into network access changes and may reduce the time it takes to detect suspicious activity.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sways can be shared with people outside of your organization</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Disable external sharing of Sway documents that can contain sensitive information to prevent accidental or arbitrary data leak.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Passwords are not set to never expire</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Organizations such as NIST and Microsoft have updated their password policy recommendations to not arbitrarily require users to change their passwords after a specific amount of time, unless there is evidence that the password is compromised or the user forgot it. They suggest this even for single factor (Password Only) use cases, with a reasoning that forcing arbitrary password changes on users actually make the passwords less secure. Other recommendations within this Benchmark suggest the use of MFA authentication for at least critical accounts (at minimum), which makes password expiration even less useful as well as password protection for Azure AD..</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Exchange Online Spam Policies are not set to notify administrators</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>A blocked account is a good indication that the account in question has been breached and an attacker is using it to send spam emails to other people.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Modern Authentication for Exchange Online is disabled!</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Strong authentication controls, such as the use of multifactor authentication, may be circumvented if basic authentication is used by Exchange Online email clients such as Outlook 2016 and Outlook 2013. Enabling modern authentication for Exchange Online ensures strong authentication mechanisms are used when establishing sessions between email clients and Exchange Online.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Mail transport rules whitelist specific domains!</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Whitelisting domains in transport rules bypasses regular malware and phishing scanning, which can enable an attacker to launch attacks against your users from a safe haven domain.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Activity Log Alert does not exist for Delete Policy Assignment</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Monitoring for create policy assignment events gives insight into changes done in 'Azure policy - assignments' and can reduce the time it takes to detect unsolicited changes.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Some SQL server's Transparent Data Encryption (TDE) protector are not encrypted with Customer-managed key</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Customer-managed key support for Transparent Data Encryption (TDE) allows user control of TDE encryption keys and restricts who can access them and when. Azure Key Vault, Azureâ€™s cloud-based external key management system, is the first key management service where TDE has integrated support for Customer-managed keys. With Customer-managed key support, the database encryption key is protected by an asymmetric key stored in the Key Vault. The asymmetric key is set at the server level and inherited by all databases under that server.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Some Azure SQL Databases allow ingress from 0.0.0.0/0 (ANY IP)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Azure SQL Server includes a firewall to block access to unauthorized connections. More granular IP addresses can be defined by referencing the range of addresses available from specific datacenters. By default, for a SQL server, a Firewall exists with StartIp of 0.0.0.0 and EndIP of 0.0.0.0 allowing access to all the Azure services. Additionally, a custom rule can be set up with StartIp of 0.0.0.0 and EndIP of 255.255.255.255 allowing access from ANY IP over the Internet. In order to reduce the potential attack surface for a SQL server, firewall rules should be defined with more granular IP addresses by referencing the range of addresses available from specific datacenters.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Auditing Retention is not greater than 90 days</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Audit Logs can be used to check for anomalies and give insight into suspected breaches or misuse of information and access.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Setting: 'Secure transfer required' is not set to 'Enabled' for some StorageAccounts.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>The secure transfer option enhances the security of a storage account by only allowing requests to the storage account by a secure connection. For example, when calling REST APIs to access storage accounts, the connection must use HTTPS. Any requests using HTTP will be rejected when 'secure transfer required' is enabled. When using the Azure files service, connection without encryption will fail, including scenarios using SMB 2.1, SMB 3.0 without encryption, and some flavors of the Linux SMB client. Because Azure storage doesnâ€™t support HTTPS for custom domain names, this option is not applied when using a custom domain name.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ensure That Microsoft Defender for IoT Hub Is Set To 'On'</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>IoT devices are very rarely patched and can be potential attack vectors for enterprise networks. Updating their network configuration to use a central security hub allows for detection of these breaches</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>'Cross Tenant Replication' is enabled</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Disabling Cross Tenant Replication minimizes the risk of unauthorized data access and ensures that data governance policies are strictly adhered to. This control is especially critical for organizations with stringent data security and privacy requirements, as it prevents the accidental sharing of sensitive information.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>The Minimum TLS version for some storage accounts is not set to minimum Version 1.2</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TLS 1.0 has known vulnerabilities and has been replaced by later versions of the TLS protocol. Continued use of this legacy protocol affects the security of data in transit.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Some Storage for Critical Data is not Encrypted with Customer Managed Keys</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>By default, data in the storage account is encrypted using Microsoft Managed Keys at rest. All Azure Storage resources are encrypted, including blobs, disks, files, queues, and tables. All object metadata is also encrypted. If you want to control and manage this encryption key yourself, however, you can specify a customer-managed key. That key is used to protect and control access to the key that encrypts your data. You can also choose to automatically update the key version used for Azure Storage encryption whenever a new version is available in the associated Key Vault.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Multiple Defender Subscriptions Not Compliant</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Enabling Microsoft Defender allows for greater defense-in-depth, with threat detection provided by the Microsoft Security Response Center (MSRC).</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Activity Log Alert does not exist for Create or Update Public IP Address rules</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Monitoring for Create or Update Public IP Address events gives insight into network access changes and may reduce the time it takes to detect suspicious activity.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Activity Log Alert do not exist for Create Policy Assignment</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Monitoring for create policy assignment events gives insight into changes done in 'Azure policy - assignments' and can reduce the time it takes to detect unsolicited changes.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>'Diagnostic Setting' does not exist for some Subscription Activity Logs</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>A diagnostic setting controls how a diagnostic log is exported. By default, logs are retained only for 90 days. Diagnostic settings should be defined so that logs can be exported and stored for a longer duration in order to analyze security activities within an Azure subscription.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Activity Log Alert does not exist for Delete Public IP Address rules</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Monitoring for Delete Public IP Address events gives insight into network access changes and may reduce the time it takes to detect suspicious activity.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Activity Log Alert does not exist for Delete SQL Server Firewall Rules</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Monitoring for Delete SQL Server Firewall Rule events gives insight into SQL network access changes and may reduce the time it takes to detect suspicious activity.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Activity Log Alert does not exist for Delete Security Solutions</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Monitoring for Create or Update Security Solution events gives insight into changes to the active security solutions and may reduce the time it takes to detect suspicious activity.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Activity Log Alert does not exist for Delete Network Security Groups</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Monitoring for Create or Update Network Security Group events gives insight into network access changes and may reduce the time it takes to detect suspicious activity.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Activity Log Alert does not exist for Create or Update Security Solutions</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Monitoring for Create or Update Security Solution events gives insight into changes to the active security solutions and may reduce the time it takes to detect suspicious activity.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>'Allow Azure services on the trusted services list to access this storage account' is not Enabled for some Storage Account Access</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Turning on firewall rules for storage account will block access to incoming requests for data, including from other Azure services. We can re-enable this functionality by enabling 'Trusted Azure Services' through networking exception</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Setting: 'Auditing' on Azure SQL Servers is not set to 'On'</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TThe Azure platform allows a SQL server to be created as a service. Enabling auditing at the server level ensures that all existing and newly created databases on the SQL server instance are audited. Auditing policy applied on the SQL database does not override auditing policy and settings applied on the particular SQL server where the database is hosted.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Some Default Network Access Rules for Storage Accounts are not Set to Deny</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Storage accounts should be configured to deny access to traffic from all networks (including internet traffic). Access can be granted to traffic from specific Azure Virtual networks, allowing a secure network boundary for specific applications to be built.Access can also be granted to public internet IP address ranges to enable connections from specific internet or on-premises clients. When network rules are configured, only applications from allowed networks can access a storage account. When calling from an allowed network, applications continue to require proper authorization (a valid access key or SAS token) to access the storage account.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Some Azure Storage Accounts have their 'Allow Blob Anonymous Access' set to Enabled</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>If 'Allow Blob Anonymous Access' is enabled, blobs can be accessed by adding the blob name to the URL to see the contents. An attacker can enumerate a blob using methods, such as brute force, and access them. Exfiltration of data by brute force enumeration of items from a storage account may occur if this setting is set to 'Enabled</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Setting Some Storage Account Access Keys are not Periodically Regenerated</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>When a storage account is created, Azure generates two 512-bit storage access keys which are used for authentication when the storage account is accessed. Rotating these keys periodically ensures that any inadvertent access or exposure does not result from the compromise of these keys.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Activity Log Alert does not exist for Create and Update SQL Server Firewall Rules</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Monitoring for Create or Update SQL Server Firewall Rule events gives insight into network access changes and may reduce the time it takes to detect suspicious activity.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Soft Delete is not Enabled for some Azure Containers and Blob Storage</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Containers and Blob Storage data can be incorrectly deleted. An attacker/malicious user may do this deliberately in order to cause disruption. Deleting an Azure Storage blob causes immediate data loss. Enabling this configuration for Azure storage ensures that even if blobs/data were deleted from the storage account, Blobs/data objects are recoverable for a particular time which is set in the 'Retention policies,' ranging from 7 days to 365 days</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>Ensure external sharing is restricted by security group!</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Organizations wishing to create tighter security controls for external sharing can set this to enforce role-based access control by using security groups already defined in Microsoft Entra.</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Informational</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Guest Users Found in your Tenant!</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>It is recommended to review your Guest Users to determine if they still need access within your tenant or that you can safely remove them.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Informational</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Public Microsoft 365 Groups Found!</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Ensure that only organizationally managed and approved public groups exist. When a group has a 'public' privacy, users may access data related to this group.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>Informational</t>
         </is>
